--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -109,10 +109,10 @@
     <t>well</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>safety</t>
@@ -1305,25 +1305,25 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6939655172413793</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="L20">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="M20">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1331,25 +1331,25 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6737588652482269</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L21">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="M21">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1409,25 +1409,25 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.6036585365853658</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L24">
         <v>198</v>
       </c>
       <c r="M24">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="10:17">
